--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/143.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/143.xlsx
@@ -479,13 +479,13 @@
         <v>0.09009568436882573</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.008431757438744</v>
+        <v>-1.95531412116177</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.06612521615524232</v>
+        <v>0.3096167583860513</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.193751408567666</v>
+        <v>-0.1423250558365299</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.09090358070138881</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.767964921229835</v>
+        <v>-1.920408673127806</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0228365422812308</v>
+        <v>0.3720329126221089</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1373905058912523</v>
+        <v>-0.1581061715466906</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.07342603351958647</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.854308527138344</v>
+        <v>-2.127078170764147</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0513154985232446</v>
+        <v>0.4198830939096497</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1242946668020305</v>
+        <v>-0.1933342935005213</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.03584452961655895</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.932571905887657</v>
+        <v>-2.324050923603715</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1327552478593422</v>
+        <v>0.5531427007572086</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1820391322860676</v>
+        <v>-0.1792247860971819</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.01284780122892964</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.918153103726982</v>
+        <v>-2.490860748021798</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2906214956301947</v>
+        <v>0.6471824731593182</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1832857554301377</v>
+        <v>-0.2053424853769243</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.0598552753809589</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.778356595468662</v>
+        <v>-2.567642187768406</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4430117308780421</v>
+        <v>0.7095687210320709</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2260030603631171</v>
+        <v>-0.2173868796931171</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.09396124351477429</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.275301658320083</v>
+        <v>-2.38715413718622</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7341391595155746</v>
+        <v>0.7715504459906494</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2146732707279947</v>
+        <v>-0.2226299373861697</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1041122704489365</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.4779563011097182</v>
+        <v>-1.839235720032769</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8107954647420395</v>
+        <v>0.7440743682092246</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1421204333507608</v>
+        <v>-0.1618428929406585</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.08270933989733996</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4036171803101284</v>
+        <v>-1.283906033846673</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8920746641277644</v>
+        <v>0.5966548853464448</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06254904471164716</v>
+        <v>-0.06221220461968881</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.02577727737189653</v>
       </c>
       <c r="E11" t="n">
-        <v>1.588392391047005</v>
+        <v>-0.4460115830429207</v>
       </c>
       <c r="F11" t="n">
-        <v>1.008380511019793</v>
+        <v>0.3133408876270488</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1160706451735549</v>
+        <v>0.03570909893554828</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.06426169360958355</v>
       </c>
       <c r="E12" t="n">
-        <v>2.929604640192593</v>
+        <v>0.4048669514924412</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9694518701117849</v>
+        <v>-0.08980475981608986</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2721330670313968</v>
+        <v>0.1727337595212584</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1789515699656179</v>
       </c>
       <c r="E13" t="n">
-        <v>4.369522054415826</v>
+        <v>1.526719173836202</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9790848671341451</v>
+        <v>-0.3725237783076342</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5991119291947952</v>
+        <v>0.3252121398398986</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3124097628919357</v>
       </c>
       <c r="E14" t="n">
-        <v>5.761565677064699</v>
+        <v>2.687482722877637</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8578287301056253</v>
+        <v>-0.8600848582356894</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8835560726432851</v>
+        <v>0.6724470540753155</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.460547674673623</v>
       </c>
       <c r="E15" t="n">
-        <v>7.001518128098771</v>
+        <v>3.778257511690436</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6504343966639254</v>
+        <v>-1.292235743036596</v>
       </c>
       <c r="G15" t="n">
-        <v>1.13717147758198</v>
+        <v>0.8571471798261021</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6257640265259186</v>
       </c>
       <c r="E16" t="n">
-        <v>8.129800218553045</v>
+        <v>4.815734439036873</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4313277869406271</v>
+        <v>-1.687230332460079</v>
       </c>
       <c r="G16" t="n">
-        <v>1.398494854157684</v>
+        <v>1.077662536662965</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.8115566475885878</v>
       </c>
       <c r="E17" t="n">
-        <v>9.225654367070282</v>
+        <v>5.828836106270848</v>
       </c>
       <c r="F17" t="n">
-        <v>0.05915253972820073</v>
+        <v>-2.097104124637218</v>
       </c>
       <c r="G17" t="n">
-        <v>1.686999966939129</v>
+        <v>1.294118498185993</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.015466514367813</v>
       </c>
       <c r="E18" t="n">
-        <v>9.939826192882437</v>
+        <v>6.596341995989155</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1814740594215206</v>
+        <v>-2.408260946593302</v>
       </c>
       <c r="G18" t="n">
-        <v>2.050585791806618</v>
+        <v>1.622739062292908</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.231321994785421</v>
       </c>
       <c r="E19" t="n">
-        <v>10.5733940735119</v>
+        <v>7.425198428998399</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.4587548418489711</v>
+        <v>-2.726429236725219</v>
       </c>
       <c r="G19" t="n">
-        <v>2.260356894121482</v>
+        <v>1.807607608089673</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.444852477526758</v>
       </c>
       <c r="E20" t="n">
-        <v>10.88047733398206</v>
+        <v>7.900292490476192</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.7743787300713063</v>
+        <v>-3.017620413137165</v>
       </c>
       <c r="G20" t="n">
-        <v>2.487179345577396</v>
+        <v>2.105413599858885</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.643849181974488</v>
       </c>
       <c r="E21" t="n">
-        <v>11.31133673609394</v>
+        <v>8.472585380732545</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.054772922320689</v>
+        <v>-3.337339112103564</v>
       </c>
       <c r="G21" t="n">
-        <v>2.640433717322838</v>
+        <v>2.38986403938386</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.817917208186765</v>
       </c>
       <c r="E22" t="n">
-        <v>11.51257665477136</v>
+        <v>8.798685940226258</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.416515570797135</v>
+        <v>-3.5773054102319</v>
       </c>
       <c r="G22" t="n">
-        <v>2.785010521652548</v>
+        <v>2.609099718675105</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.960829629471707</v>
       </c>
       <c r="E23" t="n">
-        <v>11.62738718349815</v>
+        <v>9.16033886961279</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.59803066885597</v>
+        <v>-3.807781160068353</v>
       </c>
       <c r="G23" t="n">
-        <v>2.81712995584181</v>
+        <v>2.688499539229997</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.071389578170011</v>
       </c>
       <c r="E24" t="n">
-        <v>11.38914207527896</v>
+        <v>9.263594523970115</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.950384293273856</v>
+        <v>-4.067963372781114</v>
       </c>
       <c r="G24" t="n">
-        <v>2.906345359637133</v>
+        <v>2.786435008957326</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.146775665094454</v>
       </c>
       <c r="E25" t="n">
-        <v>11.2538063372104</v>
+        <v>9.305907305988919</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.215220093518743</v>
+        <v>-4.201278070297918</v>
       </c>
       <c r="G25" t="n">
-        <v>2.907508559767774</v>
+        <v>2.926192166737613</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.187526074821287</v>
       </c>
       <c r="E26" t="n">
-        <v>10.82903051900235</v>
+        <v>9.213285724815101</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.488688601634403</v>
+        <v>-4.28284452817328</v>
       </c>
       <c r="G26" t="n">
-        <v>2.934007171674871</v>
+        <v>3.046631387842178</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.195671212584699</v>
       </c>
       <c r="E27" t="n">
-        <v>10.62977229039865</v>
+        <v>9.283820669678828</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.745998229450791</v>
+        <v>-4.370418230025087</v>
       </c>
       <c r="G27" t="n">
-        <v>2.912990868367265</v>
+        <v>3.13162212431593</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.1748569131853</v>
       </c>
       <c r="E28" t="n">
-        <v>10.23346733005669</v>
+        <v>9.081351442067678</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.805649619100283</v>
+        <v>-4.340539412054997</v>
       </c>
       <c r="G28" t="n">
-        <v>2.975142587390944</v>
+        <v>3.194705662659419</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.132388378022366</v>
       </c>
       <c r="E29" t="n">
-        <v>9.77486269289364</v>
+        <v>8.859343915103823</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.897358269183747</v>
+        <v>-4.396280938207179</v>
       </c>
       <c r="G29" t="n">
-        <v>2.89363515523263</v>
+        <v>3.17322659773015</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.071810495417536</v>
       </c>
       <c r="E30" t="n">
-        <v>9.206948723832745</v>
+        <v>8.532393385284607</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.92509878217755</v>
+        <v>-4.383676193083803</v>
       </c>
       <c r="G30" t="n">
-        <v>2.859891333310186</v>
+        <v>3.036011480830763</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.000539118029903</v>
       </c>
       <c r="E31" t="n">
-        <v>8.533123730156891</v>
+        <v>8.134237378455992</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.823474598639453</v>
+        <v>-4.354298700203847</v>
       </c>
       <c r="G31" t="n">
-        <v>2.795683945314088</v>
+        <v>2.970946252413556</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.923272244152469</v>
       </c>
       <c r="E32" t="n">
-        <v>8.072143898139801</v>
+        <v>7.790396049446099</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.873975428127264</v>
+        <v>-4.322207598358768</v>
       </c>
       <c r="G32" t="n">
-        <v>2.672055761469768</v>
+        <v>2.811622462936379</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.843787879680962</v>
       </c>
       <c r="E33" t="n">
-        <v>7.56063805232896</v>
+        <v>7.408792427697082</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.828216331242371</v>
+        <v>-4.236977610978578</v>
       </c>
       <c r="G33" t="n">
-        <v>2.558510744116501</v>
+        <v>2.68824927018971</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.766807286983975</v>
       </c>
       <c r="E34" t="n">
-        <v>6.913023625061005</v>
+        <v>6.970157371125977</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.707477259495199</v>
+        <v>-4.048098464460739</v>
       </c>
       <c r="G34" t="n">
-        <v>2.429996804919663</v>
+        <v>2.527702467855282</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.691748812818422</v>
       </c>
       <c r="E35" t="n">
-        <v>6.291459214250576</v>
+        <v>6.445443930868301</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.753998968644362</v>
+        <v>-3.979529469479516</v>
       </c>
       <c r="G35" t="n">
-        <v>2.209037574690594</v>
+        <v>2.307711259385813</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.621135565439537</v>
       </c>
       <c r="E36" t="n">
-        <v>5.703371042111971</v>
+        <v>6.026572258384247</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.66062264530188</v>
+        <v>-3.832992224334226</v>
       </c>
       <c r="G36" t="n">
-        <v>2.097071298515991</v>
+        <v>2.148773104593355</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.553227918485616</v>
       </c>
       <c r="E37" t="n">
-        <v>5.147743866311949</v>
+        <v>5.619449064621581</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.598295423146177</v>
+        <v>-3.693000537704864</v>
       </c>
       <c r="G37" t="n">
-        <v>1.883270707250597</v>
+        <v>1.961779632982833</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.487084672031124</v>
       </c>
       <c r="E38" t="n">
-        <v>4.633976155023798</v>
+        <v>5.188196157729377</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.588680527343711</v>
+        <v>-3.695436332295077</v>
       </c>
       <c r="G38" t="n">
-        <v>1.668560332933092</v>
+        <v>1.783995747251042</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.422836585798338</v>
       </c>
       <c r="E39" t="n">
-        <v>4.095342089657339</v>
+        <v>4.75567144338716</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.423846883932421</v>
+        <v>-3.517705176203849</v>
       </c>
       <c r="G39" t="n">
-        <v>1.482832372696096</v>
+        <v>1.591705701297343</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.358200114200203</v>
       </c>
       <c r="E40" t="n">
-        <v>3.495321278560152</v>
+        <v>4.399067967341762</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.316458642372121</v>
+        <v>-3.436048212229012</v>
       </c>
       <c r="G40" t="n">
-        <v>1.396221970546526</v>
+        <v>1.514352105600142</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.295228974524016</v>
       </c>
       <c r="E41" t="n">
-        <v>2.989444125127082</v>
+        <v>3.92805376342638</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.244496849174936</v>
+        <v>-3.358336527181715</v>
       </c>
       <c r="G41" t="n">
-        <v>1.215171995138035</v>
+        <v>1.343473441753497</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.232162884621294</v>
       </c>
       <c r="E42" t="n">
-        <v>2.537483422675045</v>
+        <v>3.575873281111837</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.218291791833961</v>
+        <v>-3.320560855280059</v>
       </c>
       <c r="G42" t="n">
-        <v>1.018742278895316</v>
+        <v>1.211920071633428</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.168159760391526</v>
       </c>
       <c r="E43" t="n">
-        <v>2.025505371127813</v>
+        <v>3.213630094554818</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.161023467134118</v>
+        <v>-3.256844561249807</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8411047769418055</v>
+        <v>1.081027789544305</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.103169449462186</v>
       </c>
       <c r="E44" t="n">
-        <v>1.785659485462257</v>
+        <v>2.930002867030283</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.123404410135031</v>
+        <v>-3.22137876240866</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7855293098069208</v>
+        <v>1.006425579271138</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.034355950881338</v>
       </c>
       <c r="E45" t="n">
-        <v>1.336328968961913</v>
+        <v>2.54835674676499</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.084013794614921</v>
+        <v>-3.186578773655823</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6878629973493344</v>
+        <v>0.9081690096430639</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.9634093623035942</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9846553208044282</v>
+        <v>2.202477062993013</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.04102811942176</v>
+        <v>-3.106999514921103</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5243003743784947</v>
+        <v>0.7856284730115628</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.8895857987996257</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6359675869200507</v>
+        <v>1.949950879286259</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.002577193317066</v>
+        <v>-3.086724574619629</v>
       </c>
       <c r="G47" t="n">
-        <v>0.4943562346148705</v>
+        <v>0.7724822653104594</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.814366827676258</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4768468459095216</v>
+        <v>1.712988596650925</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.8998283731168</v>
+        <v>-3.013487038924629</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3842787813858282</v>
+        <v>0.6848062522157685</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.7386276795203386</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2974228322533349</v>
+        <v>1.418979139002291</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.852111983454569</v>
+        <v>-2.98106775409276</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2394375418437389</v>
+        <v>0.5700445180817354</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.6624771270769735</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1772260100934505</v>
+        <v>1.203291298810458</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.788888357409284</v>
+        <v>-2.90861722795841</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2071197812451932</v>
+        <v>0.5361401462089186</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.5889053357107742</v>
       </c>
       <c r="E51" t="n">
-        <v>0.01609996872238431</v>
+        <v>0.9242397448715439</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.754759687811682</v>
+        <v>-2.917909449841009</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07112452916481375</v>
+        <v>0.4032079353385903</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.518419366561192</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.150612266510178</v>
+        <v>0.709757603326627</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.66261660845074</v>
+        <v>-2.906820485131445</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03098861559076752</v>
+        <v>0.3886514065048015</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.4531619194360548</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.1470848896593432</v>
+        <v>0.5960614801377144</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.501414227152291</v>
+        <v>-2.760121903026222</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.09051306842067518</v>
+        <v>0.2713570756045955</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3941410242445098</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.2154524101930386</v>
+        <v>0.4663874888484786</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.451049550318472</v>
+        <v>-2.672185389766955</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1142020561962505</v>
+        <v>0.2283108006752644</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3413607895047346</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.1981130155527902</v>
+        <v>0.2770408586516123</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.393126433664167</v>
+        <v>-2.577463280075762</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1816157211424377</v>
+        <v>0.1549662316800162</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2957296853785473</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.2870513919827642</v>
+        <v>0.1452104611661945</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.349676422830222</v>
+        <v>-2.549977758179609</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2683520448217121</v>
+        <v>0.06554777941804542</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2557645846734354</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2134974784443831</v>
+        <v>-0.03734112848401664</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.309912764778364</v>
+        <v>-2.49529161184826</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.3211005736147408</v>
+        <v>0.03459469339766739</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2204928848923151</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3046032792043882</v>
+        <v>-0.261205998011007</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.280628926036125</v>
+        <v>-2.465531632321827</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.3483688808721538</v>
+        <v>-0.02834403518666191</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1878512439343818</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.3026719577425523</v>
+        <v>-0.3815397598344445</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.296938912171043</v>
+        <v>-2.388554227194617</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.4230340519101733</v>
+        <v>-0.08488909810026782</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1560355235581859</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4237754149163059</v>
+        <v>-0.5134771906201108</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.228446257117204</v>
+        <v>-2.383093954862825</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.4323616892230012</v>
+        <v>-0.1630564616831813</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1244506297696417</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.4874822648318299</v>
+        <v>-0.6203719771858831</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.270470206627251</v>
+        <v>-2.380199333698753</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.4779484310141117</v>
+        <v>-0.2146842888618438</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.09304740834471285</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6525638162547248</v>
+        <v>-0.8770441272581436</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.311270356270486</v>
+        <v>-2.379188026413317</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.5182669308062288</v>
+        <v>-0.2489947576679562</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.06289495907372306</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7668407524993973</v>
+        <v>-0.9626613233421732</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.199624392987067</v>
+        <v>-2.358787164582139</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4960590950237974</v>
+        <v>-0.2692429396443683</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.03502181048723479</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7828595450968744</v>
+        <v>-1.01724673244976</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.193671452670308</v>
+        <v>-2.301385048256985</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.6149982759057625</v>
+        <v>-0.3679764370661965</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.01022758321405963</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.9222633355844305</v>
+        <v>-1.133915390749249</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.248055387330368</v>
+        <v>-2.350321302738223</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.6252829168443412</v>
+        <v>-0.3834569151241888</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.01102770797333708</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.01540749110652</v>
+        <v>-1.259980943202903</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.232324640232089</v>
+        <v>-2.303735845814648</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6244880371880844</v>
+        <v>-0.3977694709941759</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.02897575419470747</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9625739652809411</v>
+        <v>-1.315618584093079</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.232356120614515</v>
+        <v>-2.285241908148925</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6488239468225143</v>
+        <v>-0.4227271181815196</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.04386065139712021</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.04648413762792</v>
+        <v>-1.426719149750967</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.154373704278354</v>
+        <v>-2.280505684612931</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6782376421422603</v>
+        <v>-0.444986896594954</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.05509569575851823</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.9535682148784193</v>
+        <v>-1.524719154262269</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.173147817347668</v>
+        <v>-2.228527638179779</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.690962012718855</v>
+        <v>-0.5174814952646998</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.0626320357474368</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.947183206312863</v>
+        <v>-1.612752469697495</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.120007357793436</v>
+        <v>-2.194336007817325</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.8105134870390062</v>
+        <v>-0.6009548773055178</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.06538592907348378</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.9832723167260451</v>
+        <v>-1.679420836589746</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.049204042669528</v>
+        <v>-2.140699732239883</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7465847004273788</v>
+        <v>-0.6096812393140089</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.06386515976215783</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.033005024882662</v>
+        <v>-1.771626876715541</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.061515233226781</v>
+        <v>-2.186551696252933</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7254991402784348</v>
+        <v>-0.6052425053919409</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.05801510351024348</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8418836881265289</v>
+        <v>-1.656624317655948</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.9869012178102039</v>
+        <v>-2.095382934728076</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7870322697874426</v>
+        <v>-0.680842643788013</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.04820544936661306</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.6522427163539795</v>
+        <v>-1.589020983405644</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.9698726919464123</v>
+        <v>-2.096406834166482</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.8138142051363737</v>
+        <v>-0.6964553394521944</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.03456368358499221</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.5433835539248238</v>
+        <v>-1.528469254818768</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.8089630782045251</v>
+        <v>-2.012076398714115</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.805298761690137</v>
+        <v>-0.7144668402572382</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.01702110662777977</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.2679679841561147</v>
+        <v>-1.34755543206427</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.7768892905697808</v>
+        <v>-2.083123686801825</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7286534745975213</v>
+        <v>-0.6975146543208298</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.003323600360604718</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.09216421447891959</v>
+        <v>-1.206608315828278</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.7036533288939025</v>
+        <v>-2.015064674015905</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7128865250594524</v>
+        <v>-0.6874409319445054</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.02601503252849791</v>
       </c>
       <c r="E78" t="n">
-        <v>0.1023137180533869</v>
+        <v>-1.066401775588859</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.6233689095928396</v>
+        <v>-1.998205355207653</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6684283549783144</v>
+        <v>-0.6336409583784479</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.04973622029745083</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3584255173184644</v>
+        <v>-0.8457258688016239</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.4170165768094408</v>
+        <v>-1.901975335198254</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6297499831105926</v>
+        <v>-0.6568215379778432</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.07324629831568036</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5776061059404639</v>
+        <v>-0.5682341678119192</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.3574446751255736</v>
+        <v>-1.773578660425953</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.576629985804937</v>
+        <v>-0.5826144065041222</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.09589136124514991</v>
       </c>
       <c r="E81" t="n">
-        <v>0.8566623819367415</v>
+        <v>-0.3596687641439715</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.2730347517075816</v>
+        <v>-1.818309135815076</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4458573291690333</v>
+        <v>-0.5433064269878801</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.1173143696894085</v>
       </c>
       <c r="E82" t="n">
-        <v>1.143074049286857</v>
+        <v>-0.02026144699878288</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.08813787356663244</v>
+        <v>-1.727502398688118</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3673625696088892</v>
+        <v>-0.5116308661908251</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.1373628140293782</v>
       </c>
       <c r="E83" t="n">
-        <v>1.397613403449755</v>
+        <v>0.2475075378786475</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.06983203118590543</v>
+        <v>-1.607459830402121</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2945752033825815</v>
+        <v>-0.4205234914116987</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.1559583777712173</v>
       </c>
       <c r="E84" t="n">
-        <v>1.587882408851704</v>
+        <v>0.6175547112390753</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07516188821095002</v>
+        <v>-1.522190492543899</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.180942040958521</v>
+        <v>-0.3466846804123621</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.172638873381966</v>
       </c>
       <c r="E85" t="n">
-        <v>1.855369644306421</v>
+        <v>0.8965920990058973</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1478626833855862</v>
+        <v>-1.341827576481857</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2059783891019297</v>
+        <v>-0.3477251070515419</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1862994173020188</v>
       </c>
       <c r="E86" t="n">
-        <v>1.972712769799388</v>
+        <v>1.168126137621479</v>
       </c>
       <c r="F86" t="n">
-        <v>0.2561064043383132</v>
+        <v>-1.204548711808056</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1754565843207881</v>
+        <v>-0.2575841800128941</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1952446572108989</v>
       </c>
       <c r="E87" t="n">
-        <v>2.161239336034056</v>
+        <v>1.438441885437174</v>
       </c>
       <c r="F87" t="n">
-        <v>0.3799313405727957</v>
+        <v>-1.028438008402208</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1049137693614552</v>
+        <v>-0.2332104939195529</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1971520607600435</v>
       </c>
       <c r="E88" t="n">
-        <v>2.383216956634607</v>
+        <v>1.687006263015615</v>
       </c>
       <c r="F88" t="n">
-        <v>0.4800893252994011</v>
+        <v>-0.7722443601428226</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.08267602721571905</v>
+        <v>-0.2304229060557294</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1902526669093285</v>
       </c>
       <c r="E89" t="n">
-        <v>2.464493007982089</v>
+        <v>1.851891062048347</v>
       </c>
       <c r="F89" t="n">
-        <v>0.704857681802018</v>
+        <v>-0.5769872881454723</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.007963635604060604</v>
+        <v>-0.1930305078101103</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1727898492469591</v>
       </c>
       <c r="E90" t="n">
-        <v>2.536331240678253</v>
+        <v>2.03366980831</v>
       </c>
       <c r="F90" t="n">
-        <v>0.7350347763955948</v>
+        <v>-0.444180998804848</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01390421204816985</v>
+        <v>-0.1825979090741293</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1434081290929183</v>
       </c>
       <c r="E91" t="n">
-        <v>2.568252348458231</v>
+        <v>2.098849940123061</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9140353789081516</v>
+        <v>-0.2573543732211842</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.009699778694855263</v>
+        <v>-0.2054920171934478</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1003401354866948</v>
       </c>
       <c r="E92" t="n">
-        <v>2.68460698994302</v>
+        <v>2.200051499527089</v>
       </c>
       <c r="F92" t="n">
-        <v>1.061001544263997</v>
+        <v>-0.1210710756416067</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.04764465765205094</v>
+        <v>-0.2215847886896261</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.04388203164166275</v>
       </c>
       <c r="E93" t="n">
-        <v>2.730576218380607</v>
+        <v>2.328135731503811</v>
       </c>
       <c r="F93" t="n">
-        <v>1.142227226999597</v>
+        <v>-0.004198581865909359</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.05424924188502863</v>
+        <v>-0.2091232793062885</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.02299136241238304</v>
       </c>
       <c r="E94" t="n">
-        <v>2.676270984676612</v>
+        <v>2.323701719639107</v>
       </c>
       <c r="F94" t="n">
-        <v>1.143100807611919</v>
+        <v>0.1231080846648903</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.105017654623461</v>
+        <v>-0.2657139887744122</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.09577695498273045</v>
       </c>
       <c r="E95" t="n">
-        <v>2.539975094944064</v>
+        <v>2.212618468191554</v>
       </c>
       <c r="F95" t="n">
-        <v>1.287709092324056</v>
+        <v>0.1941309754562199</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.06434500052905125</v>
+        <v>-0.1577205368619719</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1702818114744187</v>
       </c>
       <c r="E96" t="n">
-        <v>2.470249195908686</v>
+        <v>2.087896341057929</v>
       </c>
       <c r="F96" t="n">
-        <v>1.248292505488444</v>
+        <v>0.2701372107855875</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.05732959730541408</v>
+        <v>-0.1747325355249898</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2421167752063263</v>
       </c>
       <c r="E97" t="n">
-        <v>2.280323326675181</v>
+        <v>1.843998930174145</v>
       </c>
       <c r="F97" t="n">
-        <v>1.20561769907174</v>
+        <v>0.3160544965921712</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1400080996899753</v>
+        <v>-0.207393432291979</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3069723891029245</v>
       </c>
       <c r="E98" t="n">
-        <v>2.161647006986473</v>
+        <v>1.659748973892051</v>
       </c>
       <c r="F98" t="n">
-        <v>1.116981534313056</v>
+        <v>0.3888780652582688</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1903153248258666</v>
+        <v>-0.2225024418373444</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.361072110514756</v>
       </c>
       <c r="E99" t="n">
-        <v>2.021549861075984</v>
+        <v>1.403544307498816</v>
       </c>
       <c r="F99" t="n">
-        <v>1.098252280788699</v>
+        <v>0.3672778008566595</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2311312146603147</v>
+        <v>-0.2484107965739537</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.4008451358000722</v>
       </c>
       <c r="E100" t="n">
-        <v>1.802284275421434</v>
+        <v>1.210975660160648</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9895190398892474</v>
+        <v>0.3679514810405762</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3095441252261511</v>
+        <v>-0.2787437190605392</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.4251518313997327</v>
       </c>
       <c r="E101" t="n">
-        <v>1.664079100494749</v>
+        <v>1.085872620399669</v>
       </c>
       <c r="F101" t="n">
-        <v>0.8913364491598743</v>
+        <v>0.3543897322914494</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3795313114356649</v>
+        <v>-0.3745983355095085</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.432340718074252</v>
       </c>
       <c r="E102" t="n">
-        <v>1.507427995485541</v>
+        <v>0.9812019228522946</v>
       </c>
       <c r="F102" t="n">
-        <v>0.7635890572751105</v>
+        <v>0.3387345381109928</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3408261812428809</v>
+        <v>-0.3834679332580379</v>
       </c>
     </row>
   </sheetData>
